--- a/inputfiles/QuibblePond/params_Quibble.xlsx
+++ b/inputfiles/QuibblePond/params_Quibble.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\SubsurfaceSinks\inputfiles\Pine8th\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\QuibblePond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B67FB18-3354-44FF-A984-079DFE15A273}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64392D9B-2B88-4F29-BFC9-18300B2691AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="14505" windowHeight="6510" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,21 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="176">
   <si>
     <t>val</t>
   </si>
@@ -318,18 +327,6 @@
     <t>If_sw</t>
   </si>
   <si>
-    <t>BC_Depth_Curve</t>
-  </si>
-  <si>
-    <t>BC_Volume_Curve</t>
-  </si>
-  <si>
-    <t>BC volume curve to find ponding depth</t>
-  </si>
-  <si>
-    <t>BC Ponding depths at the volumes above</t>
-  </si>
-  <si>
     <t>Kf</t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>Dpipe</t>
   </si>
   <si>
-    <t>Diameter of drainage pipe</t>
-  </si>
-  <si>
     <t>Ymob_immob</t>
   </si>
   <si>
@@ -471,12 +465,6 @@
     <t>Generic high value, assume root tips are in equilibrium with interstitial water. (Trapp et al, 2007)</t>
   </si>
   <si>
-    <t>fvalveopen</t>
-  </si>
-  <si>
-    <t>Default value</t>
-  </si>
-  <si>
     <t>MinWindSpeed</t>
   </si>
   <si>
@@ -498,9 +486,6 @@
     <t>1mm</t>
   </si>
   <si>
-    <t>BC Ponding areas at the volumes above</t>
-  </si>
-  <si>
     <t>k_fs</t>
   </si>
   <si>
@@ -510,9 +495,6 @@
     <t>testing, 0 in published modcel</t>
   </si>
   <si>
-    <t>BC_Area_curve</t>
-  </si>
-  <si>
     <t>hydrology_structure</t>
   </si>
   <si>
@@ -558,16 +540,28 @@
     <t>Calibrated</t>
   </si>
   <si>
-    <t>0,0.014585,0.062365,0.173085,0.35661,0.57461,1.01061,1.22861,1.44661,1.66461,1.88261,2.10061,2.31861,2.53661,2.75461,7.7686</t>
-  </si>
-  <si>
-    <t>0,0.01,0.02,0.03,0.04,0.05,0.07,0.08,0.09,0.1,0.11,0.12,0.13,0.14,0.15,0.38</t>
-  </si>
-  <si>
-    <t>0.6,2.317,7.239,14.905,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8,21.8</t>
-  </si>
-  <si>
     <t>famendment</t>
+  </si>
+  <si>
+    <t>Lpipe</t>
+  </si>
+  <si>
+    <t>m, Diameter of effluent pipe</t>
+  </si>
+  <si>
+    <t>m, Length of effluent pipe</t>
+  </si>
+  <si>
+    <t>flow_routing</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>dimdict</t>
+  </si>
+  <si>
+    <t>{'bottom':0.0,'berm':0.9,'berm_eps':0.9001,'overflow':2.0,'minW':0.61,'designdepth':0.5}</t>
   </si>
 </sst>
 </file>
@@ -577,7 +571,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -619,13 +613,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -647,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -660,9 +647,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -994,10 +978,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1028,8 +1012,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f>0.025</f>
-        <v>2.5000000000000001E-2</v>
+        <v>0.25</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1115,7 +1098,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="C9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1208,7 +1191,7 @@
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1255,7 +1238,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B20">
         <v>5.67E-2</v>
@@ -1308,7 +1291,7 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B24" s="1">
         <v>1E-3</v>
@@ -1317,12 +1300,12 @@
         <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B25" s="1">
         <v>9.9999999999999995E-7</v>
@@ -1523,7 +1506,7 @@
         <v>3.52</v>
       </c>
       <c r="C39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" spans="1:19">
@@ -1608,99 +1591,85 @@
       <c r="A45" t="s">
         <v>98</v>
       </c>
-      <c r="B45" t="s">
-        <v>177</v>
+      <c r="B45" s="1">
+        <v>360</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="G45" s="3"/>
       <c r="L45" s="2"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="2"/>
-      <c r="S45" s="2"/>
     </row>
     <row r="46" spans="1:19">
       <c r="A46" t="s">
-        <v>97</v>
-      </c>
-      <c r="B46" t="s">
-        <v>178</v>
+        <v>159</v>
+      </c>
+      <c r="B46" s="9">
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
+        <v>160</v>
+      </c>
     </row>
     <row r="47" spans="1:19">
       <c r="A47" t="s">
-        <v>161</v>
-      </c>
-      <c r="B47" t="s">
-        <v>179</v>
+        <v>99</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
       </c>
       <c r="C47" t="s">
-        <v>157</v>
-      </c>
-      <c r="L47" s="2"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="48" spans="1:19">
       <c r="A48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B48" s="1">
-        <v>360</v>
+        <v>100</v>
+      </c>
+      <c r="B48">
+        <v>0.15</v>
       </c>
       <c r="C48" t="s">
-        <v>129</v>
-      </c>
-      <c r="D48" t="s">
-        <v>145</v>
-      </c>
-      <c r="G48" s="3"/>
-      <c r="L48" s="2"/>
+        <v>117</v>
+      </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>168</v>
-      </c>
-      <c r="B49" s="10">
-        <v>3</v>
+        <v>101</v>
+      </c>
+      <c r="B49">
+        <v>1.3</v>
       </c>
       <c r="C49" t="s">
-        <v>169</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>103</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
+        <v>102</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
       </c>
       <c r="C50" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>103</v>
+      </c>
+      <c r="B51">
+        <v>0.8</v>
+      </c>
+      <c r="C51" t="s">
         <v>104</v>
       </c>
-      <c r="B51">
-        <v>0.15</v>
-      </c>
-      <c r="C51" t="s">
-        <v>121</v>
+      <c r="D51" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -1708,10 +1677,13 @@
         <v>105</v>
       </c>
       <c r="B52">
-        <v>1.3</v>
+        <v>0.21</v>
       </c>
       <c r="C52" t="s">
-        <v>122</v>
+        <v>115</v>
+      </c>
+      <c r="D52" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -1719,10 +1691,13 @@
         <v>106</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="C53" t="s">
-        <v>137</v>
+        <v>116</v>
+      </c>
+      <c r="D53" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -1730,349 +1705,319 @@
         <v>107</v>
       </c>
       <c r="B54">
-        <v>0.8</v>
+        <v>0.21</v>
       </c>
       <c r="C54" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>109</v>
-      </c>
-      <c r="B55">
-        <v>0.21</v>
+        <v>108</v>
+      </c>
+      <c r="B55" s="1">
+        <f>B56/10</f>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C55" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56">
-        <v>0.05</v>
+        <v>109</v>
+      </c>
+      <c r="B56" s="1">
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C56" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C57" t="s">
         <v>111</v>
       </c>
-      <c r="B57">
-        <v>0.21</v>
-      </c>
-      <c r="C57" t="s">
-        <v>118</v>
-      </c>
-      <c r="D57" t="s">
-        <v>138</v>
-      </c>
-      <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>112</v>
-      </c>
-      <c r="B58" s="1">
-        <f>B59/10</f>
-        <v>4.0000000000000002E-4</v>
+        <v>120</v>
+      </c>
+      <c r="B58">
+        <v>0.91</v>
       </c>
       <c r="C58" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>113</v>
+        <v>169</v>
       </c>
       <c r="B59" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>11.032</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>114</v>
-      </c>
-      <c r="B60" s="1">
-        <v>1E-3</v>
+        <v>143</v>
+      </c>
+      <c r="B60">
+        <v>0.25</v>
       </c>
       <c r="C60" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="D60" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61">
-        <v>0.2</v>
+        <v>128</v>
+      </c>
+      <c r="B61" t="b">
+        <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B62">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" t="s">
-        <v>151</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" t="b">
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="B63">
+        <v>0</v>
       </c>
       <c r="C63" t="s">
-        <v>134</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="I63" s="6"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B64">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
-      </c>
-      <c r="J64" s="5"/>
-      <c r="K64" s="5"/>
-      <c r="L64" s="5"/>
+        <v>151</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>148</v>
-      </c>
-      <c r="B65">
-        <v>0.8</v>
+        <v>154</v>
+      </c>
+      <c r="B65" t="b">
+        <v>0</v>
       </c>
       <c r="C65" t="s">
-        <v>149</v>
-      </c>
-      <c r="I65" s="6"/>
-      <c r="J65" s="7"/>
+        <v>155</v>
+      </c>
+      <c r="J65" s="4"/>
       <c r="K65" s="4"/>
       <c r="L65" s="4"/>
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>152</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
+        <v>153</v>
+      </c>
+      <c r="B66" t="s">
+        <v>162</v>
       </c>
       <c r="C66" t="s">
-        <v>155</v>
-      </c>
-      <c r="I66" s="6"/>
-      <c r="J66" s="8"/>
-      <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+        <v>158</v>
+      </c>
+      <c r="J66" s="4"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>158</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>97</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.20955119</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" t="s">
-        <v>160</v>
-      </c>
-      <c r="J67" s="4"/>
-      <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+        <v>161</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="L67" s="2"/>
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>163</v>
-      </c>
-      <c r="B68" t="b">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="B68" s="9">
+        <v>0.125</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
-      </c>
-      <c r="J68" s="4"/>
-      <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+        <v>157</v>
+      </c>
+      <c r="D68" t="s">
+        <v>137</v>
+      </c>
+      <c r="L68" s="2"/>
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>162</v>
-      </c>
-      <c r="B69" t="s">
-        <v>171</v>
+        <v>163</v>
+      </c>
+      <c r="B69">
+        <v>0.16522809999999999</v>
       </c>
       <c r="C69" t="s">
-        <v>167</v>
-      </c>
-      <c r="J69" s="4"/>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
+        <v>164</v>
+      </c>
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="B70" s="3">
-        <v>0.20955119</v>
+        <v>10.000011539999999</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
-      </c>
-      <c r="D70" t="s">
-        <v>170</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H70" s="3"/>
       <c r="I70" s="3"/>
-      <c r="L70" s="2"/>
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>130</v>
-      </c>
-      <c r="B71" s="10">
-        <v>0.125</v>
+        <v>7</v>
+      </c>
+      <c r="B71" s="3">
+        <v>0.19532010999999999</v>
       </c>
       <c r="C71" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="D71" t="s">
-        <v>142</v>
-      </c>
-      <c r="L71" s="2"/>
+        <v>147</v>
+      </c>
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72">
-        <v>0.16522809999999999</v>
+        <v>9</v>
+      </c>
+      <c r="B72" s="10">
+        <v>0.67638900000000002</v>
       </c>
       <c r="C72" t="s">
-        <v>173</v>
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" s="1">
+        <v>8.0580902099999996</v>
+      </c>
+      <c r="G72">
+        <v>1.05322384</v>
+      </c>
+      <c r="H72" s="3">
+        <v>2.6689209800000002</v>
+      </c>
+      <c r="I72" s="10">
+        <v>0.63343448000000002</v>
       </c>
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>85</v>
-      </c>
-      <c r="B73" s="3">
-        <v>10.000011539999999</v>
+        <v>126</v>
+      </c>
+      <c r="B73" s="11">
+        <v>100</v>
       </c>
       <c r="C73" t="s">
-        <v>141</v>
-      </c>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
+        <v>139</v>
+      </c>
+      <c r="D73" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="3">
-        <v>0.19532010999999999</v>
-      </c>
-      <c r="C74" t="s">
-        <v>87</v>
-      </c>
-      <c r="D74" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2.8152436700000001E-4</v>
       </c>
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>9</v>
-      </c>
-      <c r="B75" s="11">
-        <v>0.67638900000000002</v>
-      </c>
-      <c r="C75" t="s">
-        <v>135</v>
-      </c>
-      <c r="D75" t="s">
-        <v>136</v>
-      </c>
-      <c r="F75" s="1">
-        <v>8.0580902099999996</v>
-      </c>
-      <c r="G75">
-        <v>1.05322384</v>
-      </c>
-      <c r="H75" s="3">
-        <v>2.6689209800000002</v>
-      </c>
-      <c r="I75" s="11">
-        <v>0.63343448000000002</v>
+        <v>168</v>
+      </c>
+      <c r="B75">
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="12">
-        <v>100</v>
-      </c>
-      <c r="C76" t="s">
-        <v>144</v>
-      </c>
-      <c r="D76" t="s">
-        <v>176</v>
+        <v>172</v>
+      </c>
+      <c r="B76" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>153</v>
-      </c>
-      <c r="B77" s="10">
-        <v>2.8152436700000001E-4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12">
-      <c r="A78" t="s">
-        <v>180</v>
-      </c>
-      <c r="B78">
-        <v>0</v>
+        <v>174</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/inputfiles/QuibblePond/params_Quibble.xlsx
+++ b/inputfiles/QuibblePond/params_Quibble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\QuibblePond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64392D9B-2B88-4F29-BFC9-18300B2691AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA594179-8D6C-4DB1-BA34-A641383BA682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="179">
   <si>
     <t>val</t>
   </si>
@@ -562,6 +562,15 @@
   </si>
   <si>
     <t>{'bottom':0.0,'berm':0.9,'berm_eps':0.9001,'overflow':2.0,'minW':0.61,'designdepth':0.5}</t>
+  </si>
+  <si>
+    <t>psd</t>
+  </si>
+  <si>
+    <t>[1.8249121809252755, 10.08130081300813],[1.8249121809252755, 10.08130081300813],[2.788663713490686, 18.048780487804876],[4.476757784136243, 25.528455284552845],[5.958824566555703, 32.68292682926829],[8.58259943444542, 40.32520325203252],[10.049427644208226, 45.52845528455285],[15.205925135680133, 55.12195121951219],[20.847684013040325, 62.60162601626016],[26.94057447256941, 69.91869918699187],[38.04519249947843, 80.32520325203252],[75.12820245224779, 88.29268292682927]</t>
+  </si>
+  <si>
+    <t>https://stormwaterbook.safl.umn.edu/other-resources/appendices/importance-particle-size-distribution-performance-sedimentation. NURP = [[1.8249121809252755, 10.08130081300813],[1.8249121809252755, 10.08130081300813],[2.788663713490686, 18.048780487804876],[4.476757784136243, 25.528455284552845],[5.958824566555703, 32.68292682926829],[8.58259943444542, 40.32520325203252],[10.049427644208226, 45.52845528455285],[15.205925135680133, 55.12195121951219],[20.847684013040325, 62.60162601626016],[26.94057447256941, 69.91869918699187],[38.04519249947843, 80.32520325203252],[75.12820245224779, 88.29268292682927]], Sansalone = [[30.324853761528235, 2.2764227642276422],[30.324853761528235, 2.2764227642276422],[45.8849471207449, 5.365853658536585],[59.88277632613198, 8.455284552845528],[108.20846639730246, 15.772357723577235],[149.82657959988688, 25.040650406504064],[247.74464880539531, 35.28455284552845],[426.138056845931, 52.357723577235774],[801.0142771701093, 75.1219512195122],[1004.9427644208226, 90.5691056910569],[1391.454311292045, 95.1219512195122]]</t>
   </si>
 </sst>
 </file>
@@ -978,10 +987,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1012,7 +1021,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.25</v>
+        <v>2.5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -1503,7 +1512,7 @@
         <v>86</v>
       </c>
       <c r="B39" s="1">
-        <v>3.52</v>
+        <v>1</v>
       </c>
       <c r="C39" t="s">
         <v>141</v>
@@ -1721,7 +1730,7 @@
       </c>
       <c r="B55" s="1">
         <f>B56/10</f>
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
@@ -1735,7 +1744,7 @@
         <v>109</v>
       </c>
       <c r="B56" s="1">
-        <v>4.0000000000000001E-3</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C56" t="s">
         <v>112</v>
@@ -1900,7 +1909,7 @@
         <v>125</v>
       </c>
       <c r="B68" s="9">
-        <v>0.125</v>
+        <v>3.3E-3</v>
       </c>
       <c r="C68" t="s">
         <v>157</v>
@@ -2018,6 +2027,17 @@
       </c>
       <c r="B77" t="s">
         <v>175</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
+        <v>177</v>
+      </c>
+      <c r="C78" t="s">
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/inputfiles/QuibblePond/params_Quibble.xlsx
+++ b/inputfiles/QuibblePond/params_Quibble.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\QuibblePond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA594179-8D6C-4DB1-BA34-A641383BA682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0241EE-AAAB-407D-9487-9F2BD48B667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="203">
   <si>
     <t>val</t>
   </si>
@@ -567,10 +567,82 @@
     <t>psd</t>
   </si>
   <si>
-    <t>[1.8249121809252755, 10.08130081300813],[1.8249121809252755, 10.08130081300813],[2.788663713490686, 18.048780487804876],[4.476757784136243, 25.528455284552845],[5.958824566555703, 32.68292682926829],[8.58259943444542, 40.32520325203252],[10.049427644208226, 45.52845528455285],[15.205925135680133, 55.12195121951219],[20.847684013040325, 62.60162601626016],[26.94057447256941, 69.91869918699187],[38.04519249947843, 80.32520325203252],[75.12820245224779, 88.29268292682927]</t>
-  </si>
-  <si>
-    <t>https://stormwaterbook.safl.umn.edu/other-resources/appendices/importance-particle-size-distribution-performance-sedimentation. NURP = [[1.8249121809252755, 10.08130081300813],[1.8249121809252755, 10.08130081300813],[2.788663713490686, 18.048780487804876],[4.476757784136243, 25.528455284552845],[5.958824566555703, 32.68292682926829],[8.58259943444542, 40.32520325203252],[10.049427644208226, 45.52845528455285],[15.205925135680133, 55.12195121951219],[20.847684013040325, 62.60162601626016],[26.94057447256941, 69.91869918699187],[38.04519249947843, 80.32520325203252],[75.12820245224779, 88.29268292682927]], Sansalone = [[30.324853761528235, 2.2764227642276422],[30.324853761528235, 2.2764227642276422],[45.8849471207449, 5.365853658536585],[59.88277632613198, 8.455284552845528],[108.20846639730246, 15.772357723577235],[149.82657959988688, 25.040650406504064],[247.74464880539531, 35.28455284552845],[426.138056845931, 52.357723577235774],[801.0142771701093, 75.1219512195122],[1004.9427644208226, 90.5691056910569],[1391.454311292045, 95.1219512195122]]</t>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Particle shape factor from Ferguson and Church. Recommended C1=18, C2 = 1.0 for natural particles and sieve diameter, 20/1.1 for nominal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Particle size distribution </t>
+  </si>
+  <si>
+    <t>[1.8249121809252755, 10.08130081300813],[2.788663713490686, 18.048780487804876],[4.476757784136243, 25.528455284552845],[5.958824566555703, 32.68292682926829],[8.58259943444542, 40.32520325203252],[10.049427644208226, 45.52845528455285],[15.205925135680133, 55.12195121951219],[20.847684013040325, 62.60162601626016],[26.94057447256941, 69.91869918699187],[38.04519249947843, 80.32520325203252],[75.12820245224779, 88.29268292682927]</t>
+  </si>
+  <si>
+    <t>from https://stormwaterbook.safl.umn.edu/other-resources/appendices/importance-particle-size-distribution-performance-sedimentation. NURP = [[1.8249121809252755, 10.08130081300813],[2.788663713490686, 18.048780487804876],[4.476757784136243, 25.528455284552845],[5.958824566555703, 32.68292682926829],[8.58259943444542, 40.32520325203252],[10.049427644208226, 45.52845528455285],[15.205925135680133, 55.12195121951219],[20.847684013040325, 62.60162601626016],[26.94057447256941, 69.91869918699187],[38.04519249947843, 80.32520325203252],[75.12820245224779, 88.29268292682927]], Sansalone = [[30.324853761528235, 2.2764227642276422],[45.8849471207449, 5.365853658536585],[59.88277632613198, 8.455284552845528],[108.20846639730246, 15.772357723577235],[149.82657959988688, 25.040650406504064],[247.74464880539531, 35.28455284552845],[426.138056845931, 52.357723577235774],[801.0142771701093, 75.1219512195122],[1004.9427644208226, 90.5691056910569],[1391.454311292045, 95.1219512195122]]</t>
+  </si>
+  <si>
+    <t>L_culvert_out</t>
+  </si>
+  <si>
+    <t>L_culvert_in</t>
+  </si>
+  <si>
+    <t>culvert_n</t>
+  </si>
+  <si>
+    <t>https://www.fsl.orst.edu/geowater/FX3/help/8_Hydraulic_Reference/Mannings_n_Tables.htm</t>
+  </si>
+  <si>
+    <t>Concrete channel, some debris - used max for straight culvert</t>
+  </si>
+  <si>
+    <t>D_culvert_out</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>D_culvert_in</t>
+  </si>
+  <si>
+    <t>m, From GIS</t>
+  </si>
+  <si>
+    <t>calc_depth</t>
+  </si>
+  <si>
+    <t>Calculate depth from Qin and Qout, or calculate Qout from depth and Qin</t>
+  </si>
+  <si>
+    <t>depth_watertable</t>
+  </si>
+  <si>
+    <t>Depth of water table below pond bottom.</t>
+  </si>
+  <si>
+    <t>Pond bottom elevation - creek channel elevation</t>
+  </si>
+  <si>
+    <t>f_etplant</t>
+  </si>
+  <si>
+    <t>Plant transpiration efficiency factor. Ratio of plant evaporation to free surface evaporation.</t>
+  </si>
+  <si>
+    <t>Set to 0.5</t>
+  </si>
+  <si>
+    <t>part_settling</t>
+  </si>
+  <si>
+    <t>Explicit</t>
+  </si>
+  <si>
+    <t>Calculate particle settling or use timeseries values.</t>
   </si>
 </sst>
 </file>
@@ -987,10 +1059,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C89" sqref="C89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1730,7 +1802,7 @@
       </c>
       <c r="B55" s="1">
         <f>B56/10</f>
-        <v>4.0000000000000003E-5</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="C55" t="s">
         <v>113</v>
@@ -1744,7 +1816,7 @@
         <v>109</v>
       </c>
       <c r="B56" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="C56" t="s">
         <v>112</v>
@@ -2034,10 +2106,144 @@
         <v>176</v>
       </c>
       <c r="B78" t="s">
+        <v>181</v>
+      </c>
+      <c r="C78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79" t="s">
         <v>177</v>
       </c>
-      <c r="C78" t="s">
+      <c r="B79">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80" t="s">
         <v>178</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>183</v>
+      </c>
+      <c r="B81">
+        <v>11.03</v>
+      </c>
+      <c r="C81" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>184</v>
+      </c>
+      <c r="B82">
+        <v>15.000999999999999</v>
+      </c>
+      <c r="C82" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>185</v>
+      </c>
+      <c r="B83">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="C83" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>188</v>
+      </c>
+      <c r="B84">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="C84" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>190</v>
+      </c>
+      <c r="B85">
+        <v>0.61</v>
+      </c>
+      <c r="C85" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" t="s">
+        <v>192</v>
+      </c>
+      <c r="B86" t="b">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>194</v>
+      </c>
+      <c r="B87">
+        <f>72.5-73</f>
+        <v>-0.5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>195</v>
+      </c>
+      <c r="D87" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>197</v>
+      </c>
+      <c r="B88">
+        <v>0.5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>198</v>
+      </c>
+      <c r="D88" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>200</v>
+      </c>
+      <c r="B89" t="s">
+        <v>201</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/inputfiles/QuibblePond/params_Quibble.xlsx
+++ b/inputfiles/QuibblePond/params_Quibble.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\SubsurfaceSinks\inputfiles\QuibblePond\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0241EE-AAAB-407D-9487-9F2BD48B667A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC53917-12EE-4ADB-A466-A1FCBDE81F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
+    <workbookView xWindow="7200" yWindow="3480" windowWidth="21600" windowHeight="11295" xr2:uid="{DF45CC4F-1F30-4014-8BCA-4F35CD4112BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="205">
   <si>
     <t>val</t>
   </si>
@@ -639,10 +639,16 @@
     <t>part_settling</t>
   </si>
   <si>
-    <t>Explicit</t>
-  </si>
-  <si>
-    <t>Calculate particle settling or use timeseries values.</t>
+    <t>Calculate particle settling ('calc') or use timeseries values ('empirical')</t>
+  </si>
+  <si>
+    <t>empirical</t>
+  </si>
+  <si>
+    <t>part_init</t>
+  </si>
+  <si>
+    <t>ss</t>
   </si>
 </sst>
 </file>
@@ -1059,10 +1065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD8B427-7822-4B11-BEA9-14D81D15628E}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:S89"/>
+  <dimension ref="A1:S90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C89" sqref="C89"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="C94" sqref="C94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2240,10 +2246,18 @@
         <v>200</v>
       </c>
       <c r="B89" t="s">
+        <v>202</v>
+      </c>
+      <c r="C89" t="s">
         <v>201</v>
       </c>
-      <c r="C89" t="s">
-        <v>202</v>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>203</v>
+      </c>
+      <c r="B90" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
